--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC46F64-AF64-459E-A029-2C853F759E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D853C-61E4-444D-841C-4211372B8FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3737,7 +3737,7 @@
   <dimension ref="A1:EL144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CB1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="EL19" sqref="EL19"/>
+      <selection activeCell="DW3" sqref="DW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="DT3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="DT4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="DU4">
         <v>0</v>
@@ -40874,8 +40874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0A394-4010-4BF6-A21E-1AC28F526419}">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="23.1" customHeight="1"/>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D853C-61E4-444D-841C-4211372B8FB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB007A6-7601-48DC-AB03-C3DA11005695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3736,8 +3736,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DW3" sqref="DW3"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CA13" sqref="CA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54532931-E35C-48FF-9D5D-A609AE5AA064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D5CB2-87E4-4C6C-897F-28F2D873CC6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3760,7 +3760,7 @@
   <dimension ref="A1:EL144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D5CB2-87E4-4C6C-897F-28F2D873CC6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D319C-029D-4F36-B63E-162DA097B241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3759,8 +3759,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4D319C-029D-4F36-B63E-162DA097B241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23FD52-0F4E-49EF-AC4E-7AB83FC94265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3760,7 +3760,7 @@
   <dimension ref="A1:EL144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BK12" sqref="BK12"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A23FD52-0F4E-49EF-AC4E-7AB83FC94265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE47BAF3-2868-421C-8E3B-456F530306D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -596,25 +596,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入ると地下に行く土管口</t>
-    <rPh sb="0" eb="1">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドカン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>グチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入ると飛んでいく土管口</t>
     <rPh sb="0" eb="1">
       <t>ハイ</t>
@@ -677,19 +658,6 @@
   </si>
   <si>
     <t>イベントポイント（オワタゾーン）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>土管口（横）</t>
-    <rPh sb="0" eb="2">
-      <t>ドカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>グチ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨコ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1068,6 +1036,35 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>入れる土管口（横）</t>
+    <rPh sb="0" eb="1">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>グチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入れる土管口</t>
+    <rPh sb="0" eb="1">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>グチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1139,7 +1136,266 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="333">
+  <dxfs count="370">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3759,11 +4015,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:142" ht="23.1" customHeight="1">
       <c r="A1">
@@ -10915,150 +11171,150 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="332" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="369" priority="1" operator="between">
       <formula>39</formula>
       <formula>39.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="368" priority="2" operator="between">
       <formula>38</formula>
       <formula>38.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="367" priority="3" operator="between">
       <formula>37</formula>
       <formula>37.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="366" priority="4" operator="between">
       <formula>36</formula>
       <formula>36.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="365" priority="5" operator="between">
       <formula>35</formula>
       <formula>35.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="364" priority="6" operator="between">
       <formula>34</formula>
       <formula>34.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="363" priority="7" operator="between">
       <formula>33</formula>
       <formula>33.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="362" priority="8" operator="between">
       <formula>32</formula>
       <formula>32.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="361" priority="9" operator="between">
       <formula>31</formula>
       <formula>31.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="360" priority="10" operator="between">
       <formula>30</formula>
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="359" priority="11" operator="between">
       <formula>29</formula>
       <formula>29.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="358" priority="12" operator="between">
       <formula>28</formula>
       <formula>28.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="357" priority="13" operator="between">
       <formula>27</formula>
       <formula>27.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="356" priority="14" operator="between">
       <formula>26</formula>
       <formula>26.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="355" priority="15" operator="between">
       <formula>25</formula>
       <formula>25.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="354" priority="16" operator="between">
       <formula>24</formula>
       <formula>24.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="353" priority="17" operator="between">
       <formula>23</formula>
       <formula>23.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="352" priority="18" operator="between">
       <formula>22</formula>
       <formula>22.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="351" priority="19" operator="between">
       <formula>20</formula>
       <formula>21.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="350" priority="20" operator="between">
       <formula>19</formula>
       <formula>19.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="349" priority="21" operator="between">
       <formula>18</formula>
       <formula>18.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="348" priority="22" operator="between">
       <formula>17</formula>
       <formula>17.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="347" priority="23" operator="between">
       <formula>16</formula>
       <formula>16.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="346" priority="24" operator="between">
       <formula>15</formula>
       <formula>15.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="345" priority="25" operator="between">
       <formula>14</formula>
       <formula>14.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="344" priority="26" operator="between">
       <formula>13</formula>
       <formula>13.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="343" priority="27" operator="between">
       <formula>12</formula>
       <formula>12.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="342" priority="28" operator="between">
       <formula>10</formula>
       <formula>11.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="341" priority="29" operator="between">
       <formula>9</formula>
       <formula>9.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="340" priority="30" operator="between">
       <formula>40</formula>
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="339" priority="31" operator="between">
       <formula>8</formula>
       <formula>8.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="338" priority="32" operator="between">
       <formula>7</formula>
       <formula>7.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="337" priority="33" operator="between">
       <formula>5</formula>
       <formula>6.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="336" priority="34" operator="between">
       <formula>3</formula>
       <formula>4.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="335" priority="35" operator="between">
       <formula>1</formula>
       <formula>2.9</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="297" priority="36">
+    <cfRule type="containsBlanks" dxfId="334" priority="36">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11073,10 +11329,10 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.1" customHeight="1">
       <c r="A1">
@@ -12290,10 +12546,10 @@
   <dimension ref="A1:FC144"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:159" ht="23.1" customHeight="1">
       <c r="A1">
@@ -20404,10 +20660,10 @@
   <dimension ref="A1:AR144"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:44" ht="23.1" customHeight="1">
       <c r="A1">
@@ -22482,10 +22738,10 @@
   <dimension ref="A1:ET144"/>
   <sheetViews>
     <sheetView topLeftCell="CA1" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:150" ht="23.1" customHeight="1">
       <c r="B1">
@@ -30041,10 +30297,10 @@
   <dimension ref="A1:O144"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
       <c r="B1">
@@ -31231,10 +31487,10 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.1" customHeight="1">
       <c r="A1">
@@ -32544,10 +32800,10 @@
   <dimension ref="A1:FN144"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:170" ht="23.1" customHeight="1">
       <c r="A1">
@@ -40956,8 +41212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0A394-4010-4BF6-A21E-1AC28F526419}">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="23.1" customHeight="1"/>
@@ -40999,7 +41255,7 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="23.1" customHeight="1">
@@ -41023,7 +41279,7 @@
         <v>1.6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="23.1" customHeight="1">
@@ -41071,7 +41327,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="23.1" customHeight="1">
@@ -41125,7 +41381,7 @@
         <v>3.1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -41422,7 +41678,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.1" customHeight="1">
@@ -41438,7 +41694,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="23.1" customHeight="1">
@@ -41460,7 +41716,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="23.1" customHeight="1">
@@ -41468,7 +41724,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="23.1" customHeight="1">
@@ -41476,7 +41732,7 @@
         <v>9.4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="23.1" customHeight="1">
@@ -41484,7 +41740,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="23.1" customHeight="1">
@@ -41492,7 +41748,7 @@
         <v>10.1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="23.1" customHeight="1">
@@ -41500,7 +41756,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="23.1" customHeight="1">
@@ -41508,7 +41764,7 @@
         <v>10.3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="23.1" customHeight="1">
@@ -41516,7 +41772,7 @@
         <v>10.4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="23.1" customHeight="1">
@@ -41524,7 +41780,7 @@
         <v>10.5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="23.1" customHeight="1">
@@ -41532,7 +41788,7 @@
         <v>10.6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="23.1" customHeight="1">
@@ -41540,7 +41796,7 @@
         <v>10.7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="23.1" customHeight="1">
@@ -41548,7 +41804,7 @@
         <v>10.8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="23.1" customHeight="1">
@@ -41708,7 +41964,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="23.1" customHeight="1">
@@ -41716,7 +41972,7 @@
         <v>20.2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="23.1" customHeight="1">
@@ -41724,7 +41980,7 @@
         <v>20.3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="23.1" customHeight="1">
@@ -41732,7 +41988,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="23.1" customHeight="1">
@@ -41740,7 +41996,7 @@
         <v>20.5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="23.1" customHeight="1">
@@ -41748,7 +42004,7 @@
         <v>20.6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="23.1" customHeight="1">
@@ -41756,7 +42012,7 @@
         <v>20.7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="23.1" customHeight="1">
@@ -41764,7 +42020,7 @@
         <v>20.8</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="23.1" customHeight="1">
@@ -41804,7 +42060,7 @@
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="23.1" customHeight="1">
@@ -41812,7 +42068,7 @@
         <v>23.1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="23.1" customHeight="1">
@@ -41820,7 +42076,7 @@
         <v>23.2</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="23.1" customHeight="1">
@@ -41892,7 +42148,7 @@
         <v>28.1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="23.1" customHeight="1">
@@ -41900,7 +42156,7 @@
         <v>29</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="23.1" customHeight="1">
@@ -41908,7 +42164,7 @@
         <v>29.1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="23.1" customHeight="1">
@@ -41924,7 +42180,7 @@
         <v>30.1</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="23.1" customHeight="1">
@@ -41932,7 +42188,7 @@
         <v>30.2</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="23.1" customHeight="1">
@@ -41940,7 +42196,7 @@
         <v>31</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="23.1" customHeight="1">
@@ -41948,7 +42204,7 @@
         <v>31.1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="23.1" customHeight="1">
@@ -41956,7 +42212,7 @@
         <v>32</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="23.1" customHeight="1">
@@ -41964,7 +42220,7 @@
         <v>33</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="23.1" customHeight="1">
@@ -41972,7 +42228,7 @@
         <v>34</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="23.1" customHeight="1">
@@ -41980,7 +42236,7 @@
         <v>34.1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="23.1" customHeight="1">
@@ -41988,7 +42244,7 @@
         <v>35</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="23.1" customHeight="1">
@@ -41996,7 +42252,7 @@
         <v>36</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="23.1" customHeight="1">
@@ -42004,7 +42260,7 @@
         <v>36.1</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="23.1" customHeight="1">
@@ -42012,7 +42268,7 @@
         <v>37</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="23.1" customHeight="1">
@@ -42020,7 +42276,7 @@
         <v>37.1</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="23.1" customHeight="1">
@@ -42028,7 +42284,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="23.1" customHeight="1">
@@ -42044,7 +42300,7 @@
         <v>39</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="23.1" customHeight="1">
@@ -42052,7 +42308,7 @@
         <v>39.1</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="23.1" customHeight="1">
@@ -42060,7 +42316,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="23.1" customHeight="1">
@@ -42068,7 +42324,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE47BAF3-2868-421C-8E3B-456F530306D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FBBED7-376A-408E-A96C-6D04768F1CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,22 +596,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入ると飛んでいく土管口</t>
-    <rPh sb="0" eb="1">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドカン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>クチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>火の玉が出てくる土管口</t>
     <rPh sb="0" eb="1">
       <t>ヒ</t>
@@ -1054,15 +1038,10 @@
   </si>
   <si>
     <t>入れる土管口</t>
-    <rPh sb="0" eb="1">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ドカン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>グチ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入ると揺れて飛んでいく土管口</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4016,7 +3995,7 @@
   <dimension ref="A1:EL144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
@@ -7962,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -41213,7 +41192,7 @@
   <dimension ref="A2:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="23.1" customHeight="1"/>
@@ -41255,7 +41234,7 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="23.1" customHeight="1">
@@ -41279,7 +41258,7 @@
         <v>1.6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="23.1" customHeight="1">
@@ -41327,7 +41306,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="23.1" customHeight="1">
@@ -41381,7 +41360,7 @@
         <v>3.1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -41678,7 +41657,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.1" customHeight="1">
@@ -41694,7 +41673,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="23.1" customHeight="1">
@@ -41716,7 +41695,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="23.1" customHeight="1">
@@ -41724,7 +41703,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="23.1" customHeight="1">
@@ -41732,7 +41711,7 @@
         <v>9.4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="23.1" customHeight="1">
@@ -41740,7 +41719,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="23.1" customHeight="1">
@@ -41748,7 +41727,7 @@
         <v>10.1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="23.1" customHeight="1">
@@ -41756,7 +41735,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="23.1" customHeight="1">
@@ -41764,7 +41743,7 @@
         <v>10.3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="23.1" customHeight="1">
@@ -41772,7 +41751,7 @@
         <v>10.4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="23.1" customHeight="1">
@@ -41780,7 +41759,7 @@
         <v>10.5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="23.1" customHeight="1">
@@ -41788,7 +41767,7 @@
         <v>10.6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="23.1" customHeight="1">
@@ -41796,7 +41775,7 @@
         <v>10.7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="23.1" customHeight="1">
@@ -41804,7 +41783,7 @@
         <v>10.8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="23.1" customHeight="1">
@@ -41964,7 +41943,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="23.1" customHeight="1">
@@ -41980,7 +41959,7 @@
         <v>20.3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="23.1" customHeight="1">
@@ -41988,7 +41967,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="23.1" customHeight="1">
@@ -41996,7 +41975,7 @@
         <v>20.5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="23.1" customHeight="1">
@@ -42004,7 +41983,7 @@
         <v>20.6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="23.1" customHeight="1">
@@ -42012,7 +41991,7 @@
         <v>20.7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="23.1" customHeight="1">
@@ -42020,7 +41999,7 @@
         <v>20.8</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="23.1" customHeight="1">
@@ -42060,7 +42039,7 @@
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="23.1" customHeight="1">
@@ -42068,7 +42047,7 @@
         <v>23.1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="23.1" customHeight="1">
@@ -42076,7 +42055,7 @@
         <v>23.2</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="23.1" customHeight="1">
@@ -42148,7 +42127,7 @@
         <v>28.1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="23.1" customHeight="1">
@@ -42156,7 +42135,7 @@
         <v>29</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="23.1" customHeight="1">
@@ -42164,7 +42143,7 @@
         <v>29.1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="23.1" customHeight="1">
@@ -42180,7 +42159,7 @@
         <v>30.1</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="23.1" customHeight="1">
@@ -42188,7 +42167,7 @@
         <v>30.2</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="23.1" customHeight="1">
@@ -42196,7 +42175,7 @@
         <v>31</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="23.1" customHeight="1">
@@ -42204,7 +42183,7 @@
         <v>31.1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="23.1" customHeight="1">
@@ -42212,7 +42191,7 @@
         <v>32</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="23.1" customHeight="1">
@@ -42220,7 +42199,7 @@
         <v>33</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="23.1" customHeight="1">
@@ -42228,7 +42207,7 @@
         <v>34</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="23.1" customHeight="1">
@@ -42236,7 +42215,7 @@
         <v>34.1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="23.1" customHeight="1">
@@ -42244,7 +42223,7 @@
         <v>35</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="23.1" customHeight="1">
@@ -42252,7 +42231,7 @@
         <v>36</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="23.1" customHeight="1">
@@ -42260,7 +42239,7 @@
         <v>36.1</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="23.1" customHeight="1">
@@ -42268,7 +42247,7 @@
         <v>37</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="23.1" customHeight="1">
@@ -42276,7 +42255,7 @@
         <v>37.1</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="23.1" customHeight="1">
@@ -42284,7 +42263,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="23.1" customHeight="1">
@@ -42300,7 +42279,7 @@
         <v>39</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="23.1" customHeight="1">
@@ -42308,7 +42287,7 @@
         <v>39.1</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="23.1" customHeight="1">
@@ -42316,7 +42295,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="23.1" customHeight="1">
@@ -42324,7 +42303,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FBBED7-376A-408E-A96C-6D04768F1CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A08B903-FB0E-440D-B08C-51F3E325558D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41192,7 +41192,7 @@
   <dimension ref="A2:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="23.1" customHeight="1"/>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A08B903-FB0E-440D-B08C-51F3E325558D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4512DC76-2CA8-450B-9A04-2557511347B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,266 +1115,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="370">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0066"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00CC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="333">
     <dxf>
       <fill>
         <patternFill>
@@ -3994,8 +3735,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
@@ -8055,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="BP10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BQ10">
         <v>0</v>
@@ -11150,150 +10891,150 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="369" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="332" priority="1" operator="between">
       <formula>39</formula>
       <formula>39.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="331" priority="2" operator="between">
       <formula>38</formula>
       <formula>38.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="330" priority="3" operator="between">
       <formula>37</formula>
       <formula>37.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="329" priority="4" operator="between">
       <formula>36</formula>
       <formula>36.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="328" priority="5" operator="between">
       <formula>35</formula>
       <formula>35.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="327" priority="6" operator="between">
       <formula>34</formula>
       <formula>34.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="326" priority="7" operator="between">
       <formula>33</formula>
       <formula>33.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="325" priority="8" operator="between">
       <formula>32</formula>
       <formula>32.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="324" priority="9" operator="between">
       <formula>31</formula>
       <formula>31.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="323" priority="10" operator="between">
       <formula>30</formula>
       <formula>30.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="322" priority="11" operator="between">
       <formula>29</formula>
       <formula>29.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="321" priority="12" operator="between">
       <formula>28</formula>
       <formula>28.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="320" priority="13" operator="between">
       <formula>27</formula>
       <formula>27.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="319" priority="14" operator="between">
       <formula>26</formula>
       <formula>26.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="318" priority="15" operator="between">
       <formula>25</formula>
       <formula>25.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="317" priority="16" operator="between">
       <formula>24</formula>
       <formula>24.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="316" priority="17" operator="between">
       <formula>23</formula>
       <formula>23.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="315" priority="18" operator="between">
       <formula>22</formula>
       <formula>22.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="314" priority="19" operator="between">
       <formula>20</formula>
       <formula>21.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="313" priority="20" operator="between">
       <formula>19</formula>
       <formula>19.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="312" priority="21" operator="between">
       <formula>18</formula>
       <formula>18.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="311" priority="22" operator="between">
       <formula>17</formula>
       <formula>17.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="310" priority="23" operator="between">
       <formula>16</formula>
       <formula>16.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="309" priority="24" operator="between">
       <formula>15</formula>
       <formula>15.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="308" priority="25" operator="between">
       <formula>14</formula>
       <formula>14.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="307" priority="26" operator="between">
       <formula>13</formula>
       <formula>13.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="306" priority="27" operator="between">
       <formula>12</formula>
       <formula>12.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="305" priority="28" operator="between">
       <formula>10</formula>
       <formula>11.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="304" priority="29" operator="between">
       <formula>9</formula>
       <formula>9.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="303" priority="30" operator="between">
       <formula>40</formula>
       <formula>40</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="302" priority="31" operator="between">
       <formula>8</formula>
       <formula>8.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="301" priority="32" operator="between">
       <formula>7</formula>
       <formula>7.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="300" priority="33" operator="between">
       <formula>5</formula>
       <formula>6.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="299" priority="34" operator="between">
       <formula>3</formula>
       <formula>4.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="298" priority="35" operator="between">
       <formula>1</formula>
       <formula>2.9</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="334" priority="36">
+    <cfRule type="containsBlanks" dxfId="297" priority="36">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41191,8 +40932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0A394-4010-4BF6-A21E-1AC28F526419}">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="23.1" customHeight="1"/>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4512DC76-2CA8-450B-9A04-2557511347B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF2BBF-7A61-43A2-8C72-305568955104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,10 +115,6 @@
     <rPh sb="3" eb="4">
       <t>クモ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>うまい</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -492,13 +488,6 @@
   </si>
   <si>
     <t>Pスイッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>透明のうまい</t>
-    <rPh sb="0" eb="2">
-      <t>トウメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1042,6 +1031,17 @@
   </si>
   <si>
     <t>入ると揺れて飛んでいく土管口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うめぇ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透明のうめぇ</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3735,8 +3735,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BM12" sqref="BM12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
@@ -40932,8 +40932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0A394-4010-4BF6-A21E-1AC28F526419}">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="23.1" customHeight="1"/>
@@ -40943,7 +40943,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="23.1" customHeight="1">
@@ -40951,7 +40951,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="23.1" customHeight="1">
@@ -40959,7 +40959,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="23.1" customHeight="1">
@@ -40967,7 +40967,7 @@
         <v>1.2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="23.1" customHeight="1">
@@ -40975,7 +40975,7 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="23.1" customHeight="1">
@@ -40983,7 +40983,7 @@
         <v>1.4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="23.1" customHeight="1">
@@ -40991,7 +40991,7 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="23.1" customHeight="1">
@@ -40999,7 +40999,7 @@
         <v>1.6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="23.1" customHeight="1">
@@ -41007,7 +41007,7 @@
         <v>1.7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="23.1" customHeight="1">
@@ -41015,7 +41015,7 @@
         <v>1.8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="23.1" customHeight="1">
@@ -41023,7 +41023,7 @@
         <v>1.9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="23.1" customHeight="1">
@@ -41031,7 +41031,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="23.1" customHeight="1">
@@ -41039,7 +41039,7 @@
         <v>2.1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="23.1" customHeight="1">
@@ -41047,7 +41047,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="23.1" customHeight="1">
@@ -41055,7 +41055,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="23.1" customHeight="1">
@@ -41063,7 +41063,7 @@
         <v>2.4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="23.1" customHeight="1">
@@ -41071,7 +41071,7 @@
         <v>2.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="23.1" customHeight="1">
@@ -41079,7 +41079,7 @@
         <v>2.6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="23.1" customHeight="1">
@@ -41088,7 +41088,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -41101,7 +41101,7 @@
         <v>3.1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -41114,7 +41114,7 @@
         <v>3.2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -41127,7 +41127,7 @@
         <v>3.3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -41140,7 +41140,7 @@
         <v>3.4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -41153,7 +41153,7 @@
         <v>3.5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -41166,7 +41166,7 @@
         <v>3.6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -41179,7 +41179,7 @@
         <v>3.7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -41192,7 +41192,7 @@
         <v>3.8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -41205,7 +41205,7 @@
         <v>3.9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -41218,7 +41218,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -41231,7 +41231,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -41257,7 +41257,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -41270,7 +41270,7 @@
         <v>5.2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -41283,7 +41283,7 @@
         <v>5.3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -41296,7 +41296,7 @@
         <v>5.4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -41309,7 +41309,7 @@
         <v>5.5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -41322,7 +41322,7 @@
         <v>5.6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -41338,7 +41338,7 @@
         <v>5.7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -41350,7 +41350,7 @@
         <v>5.8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="23.1" customHeight="1">
@@ -41358,7 +41358,7 @@
         <v>5.9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="23.1" customHeight="1">
@@ -41366,7 +41366,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="23.1" customHeight="1">
@@ -41374,7 +41374,7 @@
         <v>6.1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.1" customHeight="1">
@@ -41390,7 +41390,7 @@
         <v>7.1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.1" customHeight="1">
@@ -41398,7 +41398,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.1" customHeight="1">
@@ -41406,7 +41406,7 @@
         <v>8.1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.1" customHeight="1">
@@ -41414,7 +41414,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="23.1" customHeight="1">
@@ -41436,7 +41436,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="23.1" customHeight="1">
@@ -41444,7 +41444,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="23.1" customHeight="1">
@@ -41452,7 +41452,7 @@
         <v>9.4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="23.1" customHeight="1">
@@ -41460,7 +41460,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="23.1" customHeight="1">
@@ -41468,7 +41468,7 @@
         <v>10.1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="23.1" customHeight="1">
@@ -41476,7 +41476,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="23.1" customHeight="1">
@@ -41484,7 +41484,7 @@
         <v>10.3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="23.1" customHeight="1">
@@ -41492,7 +41492,7 @@
         <v>10.4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="23.1" customHeight="1">
@@ -41500,7 +41500,7 @@
         <v>10.5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="23.1" customHeight="1">
@@ -41508,7 +41508,7 @@
         <v>10.6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="23.1" customHeight="1">
@@ -41516,7 +41516,7 @@
         <v>10.7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="23.1" customHeight="1">
@@ -41524,7 +41524,7 @@
         <v>10.8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="23.1" customHeight="1">
@@ -41532,7 +41532,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="23.1" customHeight="1">
@@ -41540,7 +41540,7 @@
         <v>12.1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="23.1" customHeight="1">
@@ -41548,7 +41548,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="23.1" customHeight="1">
@@ -41556,7 +41556,7 @@
         <v>13.1</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="23.1" customHeight="1">
@@ -41564,7 +41564,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="23.1" customHeight="1">
@@ -41572,7 +41572,7 @@
         <v>14.1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="23.1" customHeight="1">
@@ -41580,7 +41580,7 @@
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="23.1" customHeight="1">
@@ -41588,7 +41588,7 @@
         <v>15.1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="23.1" customHeight="1">
@@ -41596,7 +41596,7 @@
         <v>15.2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="23.1" customHeight="1">
@@ -41604,7 +41604,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="23.1" customHeight="1">
@@ -41612,7 +41612,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="23.1" customHeight="1">
@@ -41620,7 +41620,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="23.1" customHeight="1">
@@ -41628,7 +41628,7 @@
         <v>18</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="23.1" customHeight="1">
@@ -41652,7 +41652,7 @@
         <v>19.2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="23.1" customHeight="1">
@@ -41660,7 +41660,7 @@
         <v>19.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="23.1" customHeight="1">
@@ -41668,7 +41668,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="23.1" customHeight="1">
@@ -41676,7 +41676,7 @@
         <v>20</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="23.1" customHeight="1">
@@ -41684,7 +41684,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="23.1" customHeight="1">
@@ -41692,7 +41692,7 @@
         <v>20.2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="23.1" customHeight="1">
@@ -41700,7 +41700,7 @@
         <v>20.3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="23.1" customHeight="1">
@@ -41708,7 +41708,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="23.1" customHeight="1">
@@ -41716,7 +41716,7 @@
         <v>20.5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="23.1" customHeight="1">
@@ -41724,7 +41724,7 @@
         <v>20.6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="23.1" customHeight="1">
@@ -41732,7 +41732,7 @@
         <v>20.7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="23.1" customHeight="1">
@@ -41740,7 +41740,7 @@
         <v>20.8</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="23.1" customHeight="1">
@@ -41764,7 +41764,7 @@
         <v>22.2</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="23.1" customHeight="1">
@@ -41772,7 +41772,7 @@
         <v>22.3</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="23.1" customHeight="1">
@@ -41780,7 +41780,7 @@
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="23.1" customHeight="1">
@@ -41788,7 +41788,7 @@
         <v>23.1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="23.1" customHeight="1">
@@ -41796,7 +41796,7 @@
         <v>23.2</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="23.1" customHeight="1">
@@ -41804,7 +41804,7 @@
         <v>24</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="23.1" customHeight="1">
@@ -41812,7 +41812,7 @@
         <v>24.1</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="23.1" customHeight="1">
@@ -41828,7 +41828,7 @@
         <v>26</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="23.1" customHeight="1">
@@ -41844,7 +41844,7 @@
         <v>27.1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="23.1" customHeight="1">
@@ -41852,7 +41852,7 @@
         <v>27.2</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="23.1" customHeight="1">
@@ -41860,7 +41860,7 @@
         <v>28</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="23.1" customHeight="1">
@@ -41868,7 +41868,7 @@
         <v>28.1</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="23.1" customHeight="1">
@@ -41876,7 +41876,7 @@
         <v>29</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="23.1" customHeight="1">
@@ -41884,7 +41884,7 @@
         <v>29.1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="23.1" customHeight="1">
@@ -41900,7 +41900,7 @@
         <v>30.1</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="23.1" customHeight="1">
@@ -41908,7 +41908,7 @@
         <v>30.2</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="23.1" customHeight="1">
@@ -41916,7 +41916,7 @@
         <v>31</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="23.1" customHeight="1">
@@ -41924,7 +41924,7 @@
         <v>31.1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="23.1" customHeight="1">
@@ -41932,7 +41932,7 @@
         <v>32</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="23.1" customHeight="1">
@@ -41940,7 +41940,7 @@
         <v>33</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="23.1" customHeight="1">
@@ -41948,7 +41948,7 @@
         <v>34</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="23.1" customHeight="1">
@@ -41956,7 +41956,7 @@
         <v>34.1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="23.1" customHeight="1">
@@ -41964,7 +41964,7 @@
         <v>35</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="23.1" customHeight="1">
@@ -41972,7 +41972,7 @@
         <v>36</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="23.1" customHeight="1">
@@ -41980,7 +41980,7 @@
         <v>36.1</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="23.1" customHeight="1">
@@ -41988,7 +41988,7 @@
         <v>37</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="23.1" customHeight="1">
@@ -41996,7 +41996,7 @@
         <v>37.1</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="23.1" customHeight="1">
@@ -42004,7 +42004,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="23.1" customHeight="1">
@@ -42012,7 +42012,7 @@
         <v>38</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="23.1" customHeight="1">
@@ -42020,7 +42020,7 @@
         <v>39</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="23.1" customHeight="1">
@@ -42028,7 +42028,7 @@
         <v>39.1</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="23.1" customHeight="1">
@@ -42036,7 +42036,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="23.1" customHeight="1">
@@ -42044,7 +42044,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF2BBF-7A61-43A2-8C72-305568955104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C4C2FC-852B-49FB-AE12-8D87CBFA8D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -3735,8 +3735,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
@@ -40932,7 +40932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0A394-4010-4BF6-A21E-1AC28F526419}">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F84408B-8E6D-45A7-BD46-C617E2C5ACE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F684D27E-4656-4765-A1B4-98F6BCB4A193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3735,8 +3735,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BU14" sqref="BU14"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DR8" sqref="DR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="DS3">
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="DT3">
         <v>9.1</v>
@@ -40932,7 +40932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0A394-4010-4BF6-A21E-1AC28F526419}">
   <dimension ref="A2:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F684D27E-4656-4765-A1B4-98F6BCB4A193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070C9987-933C-4167-88E5-8883E4D6E3D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>硬いブロック</t>
     <rPh sb="0" eb="1">
@@ -674,32 +674,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飛ぶ魚（上）</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サカナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飛ぶ魚（下）</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サカナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>とげとげ敵（イベント）</t>
     <rPh sb="4" eb="5">
       <t>テキ</t>
@@ -1041,6 +1015,51 @@
     <t>透明のうめぇ</t>
     <rPh sb="0" eb="2">
       <t>トウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛ぶ魚（上昇）</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛ぶ魚（下降）</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る時のみ飛ぶ魚（下降）</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サカナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3735,8 +3754,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DR8" sqref="DR8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75"/>
@@ -3911,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="BE1">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="BF1">
         <v>0</v>
@@ -4127,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="DY1">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="DZ1">
         <v>0</v>
@@ -7655,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -40930,10 +40949,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0A394-4010-4BF6-A21E-1AC28F526419}">
-  <dimension ref="A2:J127"/>
+  <dimension ref="A2:J128"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="23.1" customHeight="1"/>
@@ -40975,7 +40994,7 @@
         <v>1.3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="23.1" customHeight="1">
@@ -40999,7 +41018,7 @@
         <v>1.6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="23.1" customHeight="1">
@@ -41047,7 +41066,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="23.1" customHeight="1">
@@ -41101,7 +41120,7 @@
         <v>3.1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -41398,7 +41417,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.1" customHeight="1">
@@ -41414,7 +41433,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="23.1" customHeight="1">
@@ -41436,7 +41455,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="23.1" customHeight="1">
@@ -41444,7 +41463,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="23.1" customHeight="1">
@@ -41452,7 +41471,7 @@
         <v>9.4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="23.1" customHeight="1">
@@ -41460,7 +41479,7 @@
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="23.1" customHeight="1">
@@ -41468,7 +41487,7 @@
         <v>10.1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="23.1" customHeight="1">
@@ -41476,7 +41495,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="23.1" customHeight="1">
@@ -41484,7 +41503,7 @@
         <v>10.3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="23.1" customHeight="1">
@@ -41492,7 +41511,7 @@
         <v>10.4</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="23.1" customHeight="1">
@@ -41500,7 +41519,7 @@
         <v>10.5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="23.1" customHeight="1">
@@ -41508,7 +41527,7 @@
         <v>10.6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="23.1" customHeight="1">
@@ -41516,7 +41535,7 @@
         <v>10.7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="23.1" customHeight="1">
@@ -41524,7 +41543,7 @@
         <v>10.8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="23.1" customHeight="1">
@@ -41652,7 +41671,7 @@
         <v>19.2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="23.1" customHeight="1">
@@ -41660,7 +41679,7 @@
         <v>19.3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="23.1" customHeight="1">
@@ -41692,7 +41711,7 @@
         <v>20.2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="23.1" customHeight="1">
@@ -41700,7 +41719,7 @@
         <v>20.3</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="23.1" customHeight="1">
@@ -41724,7 +41743,7 @@
         <v>20.6</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="23.1" customHeight="1">
@@ -41780,7 +41799,7 @@
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="23.1" customHeight="1">
@@ -41788,7 +41807,7 @@
         <v>23.1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="23.1" customHeight="1">
@@ -41796,7 +41815,7 @@
         <v>23.2</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="23.1" customHeight="1">
@@ -41871,12 +41890,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="23.1" customHeight="1">
+    <row r="106" spans="2:3" ht="22.5" customHeight="1">
       <c r="B106" s="4">
         <v>29</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="23.1" customHeight="1">
@@ -41884,167 +41903,175 @@
         <v>29.1</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="23.1" customHeight="1">
       <c r="B108" s="4">
-        <v>30</v>
+        <v>29.2</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="23.1" customHeight="1">
       <c r="B109" s="4">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="23.1" customHeight="1">
       <c r="B110" s="4">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="23.1" customHeight="1">
       <c r="B111" s="4">
-        <v>31</v>
+        <v>30.2</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="23.1" customHeight="1">
       <c r="B112" s="4">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="23.1" customHeight="1">
       <c r="B113" s="4">
-        <v>32</v>
+        <v>31.1</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="23.1" customHeight="1">
       <c r="B114" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="23.1" customHeight="1">
       <c r="B115" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="23.1" customHeight="1">
       <c r="B116" s="4">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="23.1" customHeight="1">
       <c r="B117" s="4">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="23.1" customHeight="1">
       <c r="B118" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="23.1" customHeight="1">
       <c r="B119" s="4">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="23.1" customHeight="1">
       <c r="B120" s="4">
-        <v>37</v>
+        <v>36.1</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="23.1" customHeight="1">
       <c r="B121" s="4">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="23.1" customHeight="1">
       <c r="B122" s="4">
-        <v>37.200000000000003</v>
+        <v>37.1</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="23.1" customHeight="1">
       <c r="B123" s="4">
-        <v>38</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="23.1" customHeight="1">
       <c r="B124" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="23.1" customHeight="1">
       <c r="B125" s="4">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="23.1" customHeight="1">
       <c r="B126" s="4">
-        <v>39.200000000000003</v>
+        <v>39.1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="23.1" customHeight="1">
       <c r="B127" s="4">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="23.1" customHeight="1">
+      <c r="B128" s="4">
         <v>40</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>114</v>
+      <c r="C128" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/res/ステージデータ.xlsx
+++ b/res/ステージデータ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm Project\shobon\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F59845-24AA-484A-90A5-26DEB8BD622A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D9CCC6-8E3A-450D-816A-74371D1C1138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3754,7 +3754,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EL144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -40951,7 +40951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0A394-4010-4BF6-A21E-1AC28F526419}">
   <dimension ref="A2:J128"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
